--- a/time_analysis/results.xlsx
+++ b/time_analysis/results.xlsx
@@ -1,15 +1,10 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
-  <workbookPr defaultThemeVersion="153222"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Hyunwook\Documents\projectworking\generatingseries\time_analysis\"/>
-    </mc:Choice>
-  </mc:AlternateContent>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="6" rupBuild="9303"/>
+  <workbookPr/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="15360" windowHeight="5528"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="15360" windowHeight="5532"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -206,7 +201,7 @@
 <file path=xl/charts/chart1.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <c:date1904 val="0"/>
-  <c:lang val="en-US"/>
+  <c:lang val="en-CA"/>
   <c:roundedCorners val="0"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
@@ -252,26 +247,6 @@
         </a:ln>
         <a:effectLst/>
       </c:spPr>
-      <c:txPr>
-        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-        <a:lstStyle/>
-        <a:p>
-          <a:pPr>
-            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" cap="none" spc="20" baseline="0">
-              <a:solidFill>
-                <a:schemeClr val="dk1">
-                  <a:lumMod val="50000"/>
-                  <a:lumOff val="50000"/>
-                </a:schemeClr>
-              </a:solidFill>
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:defRPr>
-          </a:pPr>
-          <a:endParaRPr lang="en-US"/>
-        </a:p>
-      </c:txPr>
     </c:title>
     <c:autoTitleDeleted val="0"/>
     <c:plotArea>
@@ -1045,11 +1020,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="345601640"/>
-        <c:axId val="331230432"/>
+        <c:axId val="79460992"/>
+        <c:axId val="79487744"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="345601640"/>
+        <c:axId val="79460992"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1076,13 +1051,8 @@
                 </a:pPr>
                 <a:r>
                   <a:rPr lang="en-CA"/>
-                  <a:t>Number</a:t>
+                  <a:t>INPUT SIZE</a:t>
                 </a:r>
-                <a:r>
-                  <a:rPr lang="en-CA" baseline="0"/>
-                  <a:t> of sublists to compute</a:t>
-                </a:r>
-                <a:endParaRPr lang="en-CA"/>
               </a:p>
             </c:rich>
           </c:tx>
@@ -1095,26 +1065,6 @@
             </a:ln>
             <a:effectLst/>
           </c:spPr>
-          <c:txPr>
-            <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-            <a:lstStyle/>
-            <a:p>
-              <a:pPr>
-                <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" cap="all" baseline="0">
-                  <a:solidFill>
-                    <a:schemeClr val="dk1">
-                      <a:lumMod val="65000"/>
-                      <a:lumOff val="35000"/>
-                    </a:schemeClr>
-                  </a:solidFill>
-                  <a:latin typeface="+mn-lt"/>
-                  <a:ea typeface="+mn-ea"/>
-                  <a:cs typeface="+mn-cs"/>
-                </a:defRPr>
-              </a:pPr>
-              <a:endParaRPr lang="en-US"/>
-            </a:p>
-          </c:txPr>
         </c:title>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:majorTickMark val="none"/>
@@ -1153,12 +1103,12 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="331230432"/>
+        <c:crossAx val="79487744"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="331230432"/>
+        <c:axId val="79487744"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1199,26 +1149,6 @@
             </a:ln>
             <a:effectLst/>
           </c:spPr>
-          <c:txPr>
-            <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-            <a:lstStyle/>
-            <a:p>
-              <a:pPr>
-                <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" cap="all" baseline="0">
-                  <a:solidFill>
-                    <a:schemeClr val="dk1">
-                      <a:lumMod val="65000"/>
-                      <a:lumOff val="35000"/>
-                    </a:schemeClr>
-                  </a:solidFill>
-                  <a:latin typeface="+mn-lt"/>
-                  <a:ea typeface="+mn-ea"/>
-                  <a:cs typeface="+mn-cs"/>
-                </a:defRPr>
-              </a:pPr>
-              <a:endParaRPr lang="en-US"/>
-            </a:p>
-          </c:txPr>
         </c:title>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:majorTickMark val="none"/>
@@ -1251,7 +1181,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="345601640"/>
+        <c:crossAx val="79460992"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -1347,7 +1277,7 @@
 <file path=xl/charts/chart2.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <c:date1904 val="0"/>
-  <c:lang val="en-US"/>
+  <c:lang val="en-CA"/>
   <c:roundedCorners val="0"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
@@ -1398,26 +1328,6 @@
         </a:ln>
         <a:effectLst/>
       </c:spPr>
-      <c:txPr>
-        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-        <a:lstStyle/>
-        <a:p>
-          <a:pPr>
-            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
-              <a:solidFill>
-                <a:schemeClr val="tx1">
-                  <a:lumMod val="65000"/>
-                  <a:lumOff val="35000"/>
-                </a:schemeClr>
-              </a:solidFill>
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:defRPr>
-          </a:pPr>
-          <a:endParaRPr lang="en-US"/>
-        </a:p>
-      </c:txPr>
     </c:title>
     <c:autoTitleDeleted val="0"/>
     <c:plotArea>
@@ -1714,11 +1624,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="331238664"/>
-        <c:axId val="331241016"/>
+        <c:axId val="81099776"/>
+        <c:axId val="81106048"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="331238664"/>
+        <c:axId val="81099776"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1775,12 +1685,12 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="331241016"/>
+        <c:crossAx val="81106048"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="331241016"/>
+        <c:axId val="81106048"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1837,7 +1747,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="331238664"/>
+        <c:crossAx val="81099776"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -3372,7 +3282,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" xmlns="" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -3382,14 +3292,14 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B1:K16"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B40" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="I14" sqref="C14:I15"/>
+    <sheetView tabSelected="1" topLeftCell="B31" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="J42" sqref="J42"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="2" max="2" width="28.796875" customWidth="1"/>
-    <col min="3" max="3" width="17.46484375" customWidth="1"/>
+    <col min="2" max="2" width="28.77734375" customWidth="1"/>
+    <col min="3" max="3" width="17.44140625" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="2:11" x14ac:dyDescent="0.45">

--- a/time_analysis/results.xlsx
+++ b/time_analysis/results.xlsx
@@ -1020,11 +1020,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="79460992"/>
-        <c:axId val="79487744"/>
+        <c:axId val="88767104"/>
+        <c:axId val="88793856"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="79460992"/>
+        <c:axId val="88767104"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1051,8 +1051,13 @@
                 </a:pPr>
                 <a:r>
                   <a:rPr lang="en-CA"/>
-                  <a:t>INPUT SIZE</a:t>
+                  <a:t>INPUT SIZE (one</a:t>
                 </a:r>
+                <a:r>
+                  <a:rPr lang="en-CA" baseline="0"/>
+                  <a:t> unit = number)</a:t>
+                </a:r>
+                <a:endParaRPr lang="en-CA"/>
               </a:p>
             </c:rich>
           </c:tx>
@@ -1103,12 +1108,12 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="79487744"/>
+        <c:crossAx val="88793856"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="79487744"/>
+        <c:axId val="88793856"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1135,7 +1140,15 @@
                 </a:pPr>
                 <a:r>
                   <a:rPr lang="en-CA"/>
-                  <a:t>RT (seconds)</a:t>
+                  <a:t>Running</a:t>
+                </a:r>
+                <a:r>
+                  <a:rPr lang="en-CA" baseline="0"/>
+                  <a:t> Time </a:t>
+                </a:r>
+                <a:r>
+                  <a:rPr lang="en-CA"/>
+                  <a:t>(seconds)</a:t>
                 </a:r>
               </a:p>
             </c:rich>
@@ -1181,7 +1194,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="79460992"/>
+        <c:crossAx val="88767104"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -1624,11 +1637,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="81099776"/>
-        <c:axId val="81106048"/>
+        <c:axId val="88964096"/>
+        <c:axId val="88970368"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="81099776"/>
+        <c:axId val="88964096"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1685,14 +1698,15 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="81106048"/>
+        <c:crossAx val="88970368"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="81106048"/>
+        <c:axId val="88970368"/>
         <c:scaling>
           <c:orientation val="minMax"/>
+          <c:min val="0"/>
         </c:scaling>
         <c:delete val="0"/>
         <c:axPos val="l"/>
@@ -1710,6 +1724,25 @@
             <a:effectLst/>
           </c:spPr>
         </c:majorGridlines>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="-5400000" vert="horz"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr/>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-CA"/>
+                  <a:t>Running Time (sec)</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:layout/>
+          <c:overlay val="0"/>
+        </c:title>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
@@ -1747,7 +1780,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="81099776"/>
+        <c:crossAx val="88964096"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -3282,7 +3315,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" xmlns="" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns="" xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -3292,8 +3325,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B1:K16"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B31" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="J42" sqref="J42"/>
+    <sheetView tabSelected="1" topLeftCell="B23" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="J34" sqref="J34"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>

--- a/time_analysis/results.xlsx
+++ b/time_analysis/results.xlsx
@@ -1,13 +1,19 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="6" rupBuild="9303"/>
-  <workbookPr/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
+  <workbookPr defaultThemeVersion="153222"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Hyunwook\Documents\projectworking\generatingseries\time_analysis\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="15360" windowHeight="5532"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="15360" windowHeight="5528"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
+    <sheet name="Final Algorithm" sheetId="2" r:id="rId1"/>
+    <sheet name="Sheet1" sheetId="1" r:id="rId2"/>
   </sheets>
   <calcPr calcId="152511"/>
   <extLst>
@@ -18,13 +24,105 @@
 </workbook>
 </file>
 
+<file path=xl/comments1.xml><?xml version="1.0" encoding="utf-8"?>
+<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <authors>
+    <author>Hyunwook Shin</author>
+  </authors>
+  <commentList>
+    <comment ref="G5" authorId="0" shapeId="0">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>Hyunwook Shin:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">
+No Data</t>
+        </r>
+      </text>
+    </comment>
+  </commentList>
+</comments>
+</file>
+
+<file path=xl/comments2.xml><?xml version="1.0" encoding="utf-8"?>
+<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <authors>
+    <author>Hyunwook Shin</author>
+  </authors>
+  <commentList>
+    <comment ref="G15" authorId="0" shapeId="0">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="1"/>
+          </rPr>
+          <t>Hyunwook Shin:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="1"/>
+          </rPr>
+          <t xml:space="preserve">
+16.001
+16.2
+16.8</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="J19" authorId="0" shapeId="0">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="1"/>
+          </rPr>
+          <t>Hyunwook Shin:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="1"/>
+          </rPr>
+          <t xml:space="preserve">
+108
+112.2828</t>
+        </r>
+      </text>
+    </comment>
+  </commentList>
+</comments>
+</file>
+
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="16" uniqueCount="16">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="38" uniqueCount="34">
   <si>
     <t>weight function</t>
-  </si>
-  <si>
-    <t>Size of the subset</t>
   </si>
   <si>
     <t>Sequential Counting (No MapReduce)</t>
@@ -42,13 +140,7 @@
     <t>10 Map Nodes with k Reduce Nodes</t>
   </si>
   <si>
-    <t>*k Reduce Nodes means that number of reduce operation is the number of unique keys generated</t>
-  </si>
-  <si>
     <t>Local Combiner (20 Map Nodes)</t>
-  </si>
-  <si>
-    <t>Size of Template</t>
   </si>
   <si>
     <t>Local Combiner (40 Map Nodes)</t>
@@ -63,17 +155,80 @@
     <t>number of map nodes</t>
   </si>
   <si>
-    <t>Number of Input Splits</t>
+    <t>client.py parameters</t>
   </si>
   <si>
-    <t>client.py parameters</t>
+    <t>Number of Subsets</t>
+  </si>
+  <si>
+    <t>Local Combiner (80 Map Nodes)</t>
+  </si>
+  <si>
+    <t>Local Combiner (120 Map Nodes)</t>
+  </si>
+  <si>
+    <t>size_parameter</t>
+  </si>
+  <si>
+    <t>*k Reduce Nodes means that number of reducer is the number of unique keys generated</t>
+  </si>
+  <si>
+    <t>list of subsets of {1,…,n}</t>
+  </si>
+  <si>
+    <t>create_list(n)</t>
+  </si>
+  <si>
+    <t>Size of the subset (|S|)</t>
+  </si>
+  <si>
+    <t>fixed</t>
+  </si>
+  <si>
+    <t>Customization</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Local Combiner (Combine results locally) </t>
+  </si>
+  <si>
+    <t>Global Combiner</t>
+  </si>
+  <si>
+    <t>Combine</t>
+  </si>
+  <si>
+    <t>Full Algorithm Description</t>
+  </si>
+  <si>
+    <t>Map Nodes</t>
+  </si>
+  <si>
+    <t>Optimized Algorithm</t>
+  </si>
+  <si>
+    <t>Unoptimized Algorithm</t>
+  </si>
+  <si>
+    <t>Optimizations</t>
+  </si>
+  <si>
+    <t>Map Reduce Pattern</t>
+  </si>
+  <si>
+    <t>Local Combiner as opposed to Global Combiner</t>
+  </si>
+  <si>
+    <t>Adjustment in number of map nodes</t>
+  </si>
+  <si>
+    <t>Quick way to determine maximum and minimum key values</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="1" x14ac:knownFonts="1">
+  <fonts count="7" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -81,8 +236,49 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="9"/>
+      <color indexed="81"/>
+      <name val="Tahoma"/>
+      <charset val="1"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="9"/>
+      <color indexed="81"/>
+      <name val="Tahoma"/>
+      <charset val="1"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="9" tint="-0.499984740745262"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="9" tint="-0.499984740745262"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="9"/>
+      <color indexed="81"/>
+      <name val="Tahoma"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="9"/>
+      <color indexed="81"/>
+      <name val="Tahoma"/>
+      <family val="2"/>
+    </font>
   </fonts>
-  <fills count="4">
+  <fills count="16">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -101,8 +297,80 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="0"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="0" tint="-0.34998626667073579"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.59999389629810485"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.39997558519241921"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC000"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.79998168889431442"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="0" tint="-4.9989318521683403E-2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.39997558519241921"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.79998168889431442"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF92D050"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.59999389629810485"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.79998168889431442"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="4">
+  <borders count="14">
     <border>
       <left/>
       <right/>
@@ -149,11 +417,117 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="15">
+  <cellXfs count="59">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="right"/>
@@ -169,18 +543,90 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="2" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="7" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="3" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="9" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="9" borderId="4" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="9" borderId="6" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="9" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="6" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="11" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="8" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="9" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="10" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="10" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="11" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="11" borderId="3" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="12" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="14" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="13" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="14" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="15" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="15" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="13" borderId="4" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="12" borderId="2" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="12" borderId="5" xfId="0" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -201,7 +647,620 @@
 <file path=xl/charts/chart1.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <c:date1904 val="0"/>
-  <c:lang val="en-CA"/>
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="en-CA"/>
+              <a:t>Program</a:t>
+            </a:r>
+            <a:r>
+              <a:rPr lang="en-CA" baseline="0"/>
+              <a:t> c</a:t>
+            </a:r>
+            <a:r>
+              <a:rPr lang="en-CA"/>
+              <a:t>ompute(n) Running Time </a:t>
+            </a:r>
+            <a:r>
+              <a:rPr lang="en-CA" baseline="0"/>
+              <a:t> vs Data Size</a:t>
+            </a:r>
+            <a:endParaRPr lang="en-CA"/>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:layout/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:scatterChart>
+        <c:scatterStyle val="smoothMarker"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>'Final Algorithm'!$B$4</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Optimized Algorithm</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="19050" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent1"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:xVal>
+            <c:numRef>
+              <c:f>'Final Algorithm'!$C$3:$J$3</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="8"/>
+                <c:pt idx="0">
+                  <c:v>31</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>11263</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>24575</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>53247</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>114687</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>245759</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>524287</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>1000000</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>'Final Algorithm'!$C$4:$J$4</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="8"/>
+                <c:pt idx="0">
+                  <c:v>2.0312800407409601</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>9.7438759803771902</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>9.6876251697540194</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>20.79714179039</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>26.125335216522199</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>53.281933784484799</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>107.49532604217499</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>199.76156806945801</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="1"/>
+        </c:ser>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>'Final Algorithm'!$B$5</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Unoptimized Algorithm</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="19050" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent2"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent2"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent2"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:xVal>
+            <c:numRef>
+              <c:f>'Final Algorithm'!$C$3:$J$3</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="8"/>
+                <c:pt idx="0">
+                  <c:v>31</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>11263</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>24575</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>53247</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>114687</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>245759</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>524287</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>1000000</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>'Final Algorithm'!$C$5:$J$5</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="8"/>
+                <c:pt idx="0">
+                  <c:v>1.6875</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>14.686999999999999</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>32.750397920608499</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>68.78</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="1"/>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:axId val="267420552"/>
+        <c:axId val="267426824"/>
+      </c:scatterChart>
+      <c:valAx>
+        <c:axId val="267420552"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-CA"/>
+                  <a:t>Total Input Data Size (= n)</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:layout/>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="en-US"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="25000"/>
+                <a:lumOff val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="267426824"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:valAx>
+        <c:axId val="267426824"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-CA"/>
+                  <a:t>Running Time (sec)</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:layout/>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="en-US"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="25000"/>
+                <a:lumOff val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="267420552"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="r"/>
+      <c:layout/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="en-US"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart2.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <c:date1904 val="0"/>
+  <c:lang val="en-US"/>
   <c:roundedCorners val="0"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
@@ -233,8 +1292,13 @@
             </a:pPr>
             <a:r>
               <a:rPr lang="en-US"/>
-              <a:t>Map Reduce Optimization</a:t>
+              <a:t>Run</a:t>
             </a:r>
+            <a:r>
+              <a:rPr lang="en-US" baseline="0"/>
+              <a:t>ning Time of Algorithms wthout Local Combiner Implementation</a:t>
+            </a:r>
+            <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:rich>
       </c:tx>
@@ -247,6 +1311,26 @@
         </a:ln>
         <a:effectLst/>
       </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" cap="none" spc="20" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="dk1">
+                  <a:lumMod val="50000"/>
+                  <a:lumOff val="50000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
     </c:title>
     <c:autoTitleDeleted val="0"/>
     <c:plotArea>
@@ -345,31 +1429,31 @@
           </c:dLbls>
           <c:xVal>
             <c:numRef>
-              <c:f>Sheet1!$D$7:$H$7</c:f>
+              <c:f>Sheet1!$D$9:$H$9</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="5"/>
                 <c:pt idx="0">
-                  <c:v>16</c:v>
+                  <c:v>31</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>2048</c:v>
+                  <c:v>11263</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>4096</c:v>
+                  <c:v>24575</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>8192</c:v>
+                  <c:v>53247</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>16384</c:v>
+                  <c:v>114687</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>Sheet1!$D$8:$H$8</c:f>
+              <c:f>Sheet1!$D$11:$H$11</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="5"/>
@@ -389,7 +1473,7 @@
           <c:order val="1"/>
           <c:tx>
             <c:strRef>
-              <c:f>Sheet1!$B$9</c:f>
+              <c:f>Sheet1!$B$12</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -483,31 +1567,31 @@
           </c:dLbls>
           <c:xVal>
             <c:numRef>
-              <c:f>Sheet1!$D$7:$H$7</c:f>
+              <c:f>Sheet1!$D$9:$H$9</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="5"/>
                 <c:pt idx="0">
-                  <c:v>16</c:v>
+                  <c:v>31</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>2048</c:v>
+                  <c:v>11263</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>4096</c:v>
+                  <c:v>24575</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>8192</c:v>
+                  <c:v>53247</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>16384</c:v>
+                  <c:v>114687</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>Sheet1!$D$9:$H$9</c:f>
+              <c:f>Sheet1!$D$12:$H$12</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="5"/>
@@ -533,7 +1617,7 @@
           <c:order val="2"/>
           <c:tx>
             <c:strRef>
-              <c:f>Sheet1!$B$10</c:f>
+              <c:f>Sheet1!$B$13</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -627,31 +1711,31 @@
           </c:dLbls>
           <c:xVal>
             <c:numRef>
-              <c:f>Sheet1!$D$7:$H$7</c:f>
+              <c:f>Sheet1!$D$9:$H$9</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="5"/>
                 <c:pt idx="0">
-                  <c:v>16</c:v>
+                  <c:v>31</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>2048</c:v>
+                  <c:v>11263</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>4096</c:v>
+                  <c:v>24575</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>8192</c:v>
+                  <c:v>53247</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>16384</c:v>
+                  <c:v>114687</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>Sheet1!$D$10:$H$10</c:f>
+              <c:f>Sheet1!$D$13:$H$13</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="5"/>
@@ -677,7 +1761,7 @@
           <c:order val="3"/>
           <c:tx>
             <c:strRef>
-              <c:f>Sheet1!$B$11</c:f>
+              <c:f>Sheet1!$B$14</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -771,31 +1855,31 @@
           </c:dLbls>
           <c:xVal>
             <c:numRef>
-              <c:f>Sheet1!$D$7:$H$7</c:f>
+              <c:f>Sheet1!$D$9:$H$9</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="5"/>
                 <c:pt idx="0">
-                  <c:v>16</c:v>
+                  <c:v>31</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>2048</c:v>
+                  <c:v>11263</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>4096</c:v>
+                  <c:v>24575</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>8192</c:v>
+                  <c:v>53247</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>16384</c:v>
+                  <c:v>114687</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>Sheet1!$D$11:$H$11</c:f>
+              <c:f>Sheet1!$D$14:$H$14</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="5"/>
@@ -824,7 +1908,7 @@
           <c:order val="4"/>
           <c:tx>
             <c:strRef>
-              <c:f>Sheet1!$B$12</c:f>
+              <c:f>Sheet1!$B$15</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -963,31 +2047,31 @@
           </c:trendline>
           <c:xVal>
             <c:numRef>
-              <c:f>Sheet1!$D$7:$H$7</c:f>
+              <c:f>Sheet1!$D$9:$H$9</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="5"/>
                 <c:pt idx="0">
-                  <c:v>16</c:v>
+                  <c:v>31</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>2048</c:v>
+                  <c:v>11263</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>4096</c:v>
+                  <c:v>24575</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>8192</c:v>
+                  <c:v>53247</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>16384</c:v>
+                  <c:v>114687</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>Sheet1!$D$12:$H$12</c:f>
+              <c:f>Sheet1!$D$15:$H$15</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="5"/>
@@ -1001,7 +2085,7 @@
                   <c:v>11.5</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>16.001000000000001</c:v>
+                  <c:v>16.329999999999998</c:v>
                 </c:pt>
                 <c:pt idx="4">
                   <c:v>84</c:v>
@@ -1020,11 +2104,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="88767104"/>
-        <c:axId val="88793856"/>
+        <c:axId val="267420160"/>
+        <c:axId val="267423688"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="88767104"/>
+        <c:axId val="267420160"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1051,13 +2135,8 @@
                 </a:pPr>
                 <a:r>
                   <a:rPr lang="en-CA"/>
-                  <a:t>INPUT SIZE (one</a:t>
+                  <a:t>Total Input Size</a:t>
                 </a:r>
-                <a:r>
-                  <a:rPr lang="en-CA" baseline="0"/>
-                  <a:t> unit = number)</a:t>
-                </a:r>
-                <a:endParaRPr lang="en-CA"/>
               </a:p>
             </c:rich>
           </c:tx>
@@ -1070,6 +2149,26 @@
             </a:ln>
             <a:effectLst/>
           </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" cap="all" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="dk1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="en-US"/>
+            </a:p>
+          </c:txPr>
         </c:title>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:majorTickMark val="none"/>
@@ -1108,12 +2207,12 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="88793856"/>
+        <c:crossAx val="267423688"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="88793856"/>
+        <c:axId val="267423688"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1140,15 +2239,7 @@
                 </a:pPr>
                 <a:r>
                   <a:rPr lang="en-CA"/>
-                  <a:t>Running</a:t>
-                </a:r>
-                <a:r>
-                  <a:rPr lang="en-CA" baseline="0"/>
-                  <a:t> Time </a:t>
-                </a:r>
-                <a:r>
-                  <a:rPr lang="en-CA"/>
-                  <a:t>(seconds)</a:t>
+                  <a:t>Running Time (seconds)</a:t>
                 </a:r>
               </a:p>
             </c:rich>
@@ -1162,6 +2253,26 @@
             </a:ln>
             <a:effectLst/>
           </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" cap="all" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="dk1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="en-US"/>
+            </a:p>
+          </c:txPr>
         </c:title>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:majorTickMark val="none"/>
@@ -1194,7 +2305,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="88767104"/>
+        <c:crossAx val="267420160"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -1287,10 +2398,10 @@
 </c:chartSpace>
 </file>
 
-<file path=xl/charts/chart2.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/charts/chart3.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <c:date1904 val="0"/>
-  <c:lang val="en-CA"/>
+  <c:lang val="en-US"/>
   <c:roundedCorners val="0"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
@@ -1322,17 +2433,33 @@
             </a:pPr>
             <a:r>
               <a:rPr lang="en-CA"/>
-              <a:t>Run Time of Map</a:t>
+              <a:t>Running Time of Map</a:t>
             </a:r>
             <a:r>
               <a:rPr lang="en-CA" baseline="0"/>
-              <a:t> Reduce Implementation with 10 (red), 20 (blue), 40 (gray) Map Nodes with Local Combiner</a:t>
+              <a:t> Reduce Implementation with 10 (red), 20 (blue), 40 (orange), 80 (gray), 120 (teal) Map Nodes </a:t>
+            </a:r>
+          </a:p>
+          <a:p>
+            <a:pPr>
+              <a:defRPr/>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="en-CA" baseline="0"/>
+              <a:t>with Local Combiner</a:t>
             </a:r>
             <a:endParaRPr lang="en-CA"/>
           </a:p>
         </c:rich>
       </c:tx>
-      <c:layout/>
+      <c:layout>
+        <c:manualLayout>
+          <c:xMode val="edge"/>
+          <c:yMode val="edge"/>
+          <c:x val="0.10389843815472014"/>
+          <c:y val="1.8628037690240667E-2"/>
+        </c:manualLayout>
+      </c:layout>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -1341,6 +2468,26 @@
         </a:ln>
         <a:effectLst/>
       </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
     </c:title>
     <c:autoTitleDeleted val="0"/>
     <c:plotArea>
@@ -1351,6 +2498,17 @@
         <c:ser>
           <c:idx val="1"/>
           <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Sheet1!$C$15</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>10</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
           <c:spPr>
             <a:ln w="19050" cap="rnd">
               <a:solidFill>
@@ -1375,89 +2533,42 @@
               <a:effectLst/>
             </c:spPr>
           </c:marker>
-          <c:trendline>
-            <c:spPr>
-              <a:ln w="19050" cap="rnd">
-                <a:solidFill>
-                  <a:schemeClr val="accent2"/>
-                </a:solidFill>
-                <a:prstDash val="sysDot"/>
-              </a:ln>
-              <a:effectLst/>
-            </c:spPr>
-            <c:trendlineType val="linear"/>
-            <c:dispRSqr val="1"/>
-            <c:dispEq val="1"/>
-            <c:trendlineLbl>
-              <c:layout>
-                <c:manualLayout>
-                  <c:x val="7.9968787726747807E-3"/>
-                  <c:y val="0.26261883931175267"/>
-                </c:manualLayout>
-              </c:layout>
-              <c:numFmt formatCode="General" sourceLinked="0"/>
-              <c:spPr>
-                <a:noFill/>
-                <a:ln>
-                  <a:noFill/>
-                </a:ln>
-                <a:effectLst/>
-              </c:spPr>
-              <c:txPr>
-                <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-                <a:lstStyle/>
-                <a:p>
-                  <a:pPr>
-                    <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
-                      <a:solidFill>
-                        <a:schemeClr val="tx1">
-                          <a:lumMod val="65000"/>
-                          <a:lumOff val="35000"/>
-                        </a:schemeClr>
-                      </a:solidFill>
-                      <a:latin typeface="+mn-lt"/>
-                      <a:ea typeface="+mn-ea"/>
-                      <a:cs typeface="+mn-cs"/>
-                    </a:defRPr>
-                  </a:pPr>
-                  <a:endParaRPr lang="en-US"/>
-                </a:p>
-              </c:txPr>
-            </c:trendlineLbl>
-          </c:trendline>
           <c:xVal>
             <c:numRef>
-              <c:f>Sheet1!$D$7:$I$7</c:f>
+              <c:f>Sheet1!$D$9:$J$9</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="6"/>
+                <c:ptCount val="7"/>
                 <c:pt idx="0">
-                  <c:v>16</c:v>
+                  <c:v>31</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>2048</c:v>
+                  <c:v>11263</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>4096</c:v>
+                  <c:v>24575</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>8192</c:v>
+                  <c:v>53247</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>16384</c:v>
+                  <c:v>114687</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>32768</c:v>
+                  <c:v>245759</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>524287</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>Sheet1!$D$12:$I$12</c:f>
+              <c:f>Sheet1!$D$15:$J$15</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="6"/>
+                <c:ptCount val="7"/>
                 <c:pt idx="0">
                   <c:v>5.5940000000000003</c:v>
                 </c:pt>
@@ -1468,7 +2579,7 @@
                   <c:v>11.5</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>16.001000000000001</c:v>
+                  <c:v>16.329999999999998</c:v>
                 </c:pt>
                 <c:pt idx="4">
                   <c:v>84</c:v>
@@ -1484,6 +2595,17 @@
         <c:ser>
           <c:idx val="0"/>
           <c:order val="1"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Sheet1!$C$16</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>20</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
           <c:spPr>
             <a:ln w="19050" cap="rnd">
               <a:solidFill>
@@ -1510,37 +2632,40 @@
           </c:marker>
           <c:xVal>
             <c:numRef>
-              <c:f>Sheet1!$D$7:$I$7</c:f>
+              <c:f>Sheet1!$D$9:$J$9</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="6"/>
+                <c:ptCount val="7"/>
                 <c:pt idx="0">
-                  <c:v>16</c:v>
+                  <c:v>31</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>2048</c:v>
+                  <c:v>11263</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>4096</c:v>
+                  <c:v>24575</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>8192</c:v>
+                  <c:v>53247</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>16384</c:v>
+                  <c:v>114687</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>32768</c:v>
+                  <c:v>245759</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>524287</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>Sheet1!$D$13:$I$13</c:f>
+              <c:f>Sheet1!$D$16:$J$16</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="6"/>
+                <c:ptCount val="7"/>
                 <c:pt idx="3">
                   <c:v>12.5</c:v>
                 </c:pt>
@@ -1549,6 +2674,97 @@
                 </c:pt>
                 <c:pt idx="5">
                   <c:v>148.18</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="1"/>
+        </c:ser>
+        <c:ser>
+          <c:idx val="3"/>
+          <c:order val="2"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Sheet1!$C$18</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>40</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="19050" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent4"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent4"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent4"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:xVal>
+            <c:numRef>
+              <c:f>Sheet1!$D$9:$J$9</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="7"/>
+                <c:pt idx="0">
+                  <c:v>31</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>11263</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>24575</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>53247</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>114687</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>245759</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>524287</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>Sheet1!$D$18:$J$18</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="7"/>
+                <c:pt idx="3">
+                  <c:v>36.700000000000003</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>39.32</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>57.58</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>341.6</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1557,11 +2773,24 @@
         </c:ser>
         <c:ser>
           <c:idx val="2"/>
-          <c:order val="2"/>
+          <c:order val="3"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Sheet1!$C$19</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>80</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
           <c:spPr>
             <a:ln w="19050" cap="rnd">
               <a:solidFill>
-                <a:schemeClr val="accent3"/>
+                <a:schemeClr val="bg1">
+                  <a:lumMod val="50000"/>
+                </a:schemeClr>
               </a:solidFill>
               <a:round/>
             </a:ln>
@@ -1584,45 +2813,124 @@
           </c:marker>
           <c:xVal>
             <c:numRef>
-              <c:f>Sheet1!$D$7:$I$7</c:f>
+              <c:f>Sheet1!$G$9:$K$9</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="6"/>
+                <c:ptCount val="5"/>
                 <c:pt idx="0">
-                  <c:v>16</c:v>
+                  <c:v>53247</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>2048</c:v>
+                  <c:v>114687</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>4096</c:v>
+                  <c:v>245759</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>8192</c:v>
+                  <c:v>524287</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>16384</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>32768</c:v>
+                  <c:v>1000000</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>Sheet1!$D$14:$I$14</c:f>
+              <c:f>Sheet1!$G$19:$K$19</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="6"/>
+                <c:ptCount val="5"/>
+                <c:pt idx="0">
+                  <c:v>67.554542999999995</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>74.3</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>86.985460000000003</c:v>
+                </c:pt>
                 <c:pt idx="3">
-                  <c:v>35.838200000000001</c:v>
+                  <c:v>110.1414</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>47.172478910000002</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>56.811120000000003</c:v>
+                  <c:v>631.56100000000004</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="1"/>
+        </c:ser>
+        <c:ser>
+          <c:idx val="4"/>
+          <c:order val="4"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Sheet1!$C$20</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>120</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="19050" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent5"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent5"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent5"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:xVal>
+            <c:numRef>
+              <c:f>Sheet1!$I$9:$K$9</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="3"/>
+                <c:pt idx="0">
+                  <c:v>245759</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>524287</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>1000000</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>Sheet1!$I$20:$K$20</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="3"/>
+                <c:pt idx="0">
+                  <c:v>118.557401895523</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>138.104603052139</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>213.97030000000001</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1637,11 +2945,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="88964096"/>
-        <c:axId val="88970368"/>
+        <c:axId val="267424864"/>
+        <c:axId val="267426432"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="88964096"/>
+        <c:axId val="267424864"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1661,87 +2969,61 @@
             <a:effectLst/>
           </c:spPr>
         </c:majorGridlines>
-        <c:numFmt formatCode="General" sourceLinked="1"/>
-        <c:majorTickMark val="none"/>
-        <c:minorTickMark val="none"/>
-        <c:tickLblPos val="nextTo"/>
-        <c:spPr>
-          <a:noFill/>
-          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-            <a:solidFill>
-              <a:schemeClr val="tx1">
-                <a:lumMod val="25000"/>
-                <a:lumOff val="75000"/>
-              </a:schemeClr>
-            </a:solidFill>
-            <a:round/>
-          </a:ln>
-          <a:effectLst/>
-        </c:spPr>
-        <c:txPr>
-          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-          <a:lstStyle/>
-          <a:p>
-            <a:pPr>
-              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
-                <a:solidFill>
-                  <a:schemeClr val="tx1">
-                    <a:lumMod val="65000"/>
-                    <a:lumOff val="35000"/>
-                  </a:schemeClr>
-                </a:solidFill>
-                <a:latin typeface="+mn-lt"/>
-                <a:ea typeface="+mn-ea"/>
-                <a:cs typeface="+mn-cs"/>
-              </a:defRPr>
-            </a:pPr>
-            <a:endParaRPr lang="en-US"/>
-          </a:p>
-        </c:txPr>
-        <c:crossAx val="88970368"/>
-        <c:crosses val="autoZero"/>
-        <c:crossBetween val="midCat"/>
-      </c:valAx>
-      <c:valAx>
-        <c:axId val="88970368"/>
-        <c:scaling>
-          <c:orientation val="minMax"/>
-          <c:min val="0"/>
-        </c:scaling>
-        <c:delete val="0"/>
-        <c:axPos val="l"/>
-        <c:majorGridlines>
-          <c:spPr>
-            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-              <a:solidFill>
-                <a:schemeClr val="tx1">
-                  <a:lumMod val="15000"/>
-                  <a:lumOff val="85000"/>
-                </a:schemeClr>
-              </a:solidFill>
-              <a:round/>
-            </a:ln>
-            <a:effectLst/>
-          </c:spPr>
-        </c:majorGridlines>
         <c:title>
           <c:tx>
             <c:rich>
-              <a:bodyPr rot="-5400000" vert="horz"/>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
               <a:lstStyle/>
               <a:p>
                 <a:pPr>
-                  <a:defRPr/>
+                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
                 </a:pPr>
                 <a:r>
                   <a:rPr lang="en-CA"/>
-                  <a:t>Running Time (sec)</a:t>
+                  <a:t>Total Running Time of Algorithm</a:t>
                 </a:r>
               </a:p>
             </c:rich>
           </c:tx>
           <c:layout/>
           <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="en-US"/>
+            </a:p>
+          </c:txPr>
         </c:title>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:majorTickMark val="none"/>
@@ -1780,7 +3062,125 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="88964096"/>
+        <c:crossAx val="267426432"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:valAx>
+        <c:axId val="267426432"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-CA"/>
+                  <a:t>Running Time (seconds)</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:layout/>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="en-US"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="25000"/>
+                <a:lumOff val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="267424864"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -1941,545 +3341,47 @@
 </cs:colorStyle>
 </file>
 
-<file path=xl/charts/style1.xml><?xml version="1.0" encoding="utf-8"?>
-<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="230">
-  <cs:axisTitle>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="dk1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:defRPr sz="900" kern="1200" cap="all"/>
-  </cs:axisTitle>
-  <cs:categoryAxis>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="dk1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="dk1">
-            <a:lumMod val="15000"/>
-            <a:lumOff val="85000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-    <cs:defRPr sz="900" b="0" kern="1200" spc="20" baseline="0"/>
-  </cs:categoryAxis>
-  <cs:chartArea mods="allowNoLineOverride">
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="dk1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:solidFill>
-        <a:schemeClr val="lt1"/>
-      </a:solidFill>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="dk1">
-            <a:lumMod val="15000"/>
-            <a:lumOff val="85000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-    <cs:defRPr sz="900" kern="1200"/>
-  </cs:chartArea>
-  <cs:dataLabel>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="dk1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:defRPr sz="900" kern="1200"/>
-  </cs:dataLabel>
-  <cs:dataLabelCallout>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="dk1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:solidFill>
-        <a:schemeClr val="lt1"/>
-      </a:solidFill>
-      <a:ln>
-        <a:solidFill>
-          <a:schemeClr val="dk1">
-            <a:lumMod val="25000"/>
-            <a:lumOff val="75000"/>
-          </a:schemeClr>
-        </a:solidFill>
-      </a:ln>
-    </cs:spPr>
-    <cs:defRPr sz="900" kern="1200"/>
-    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
-      <a:spAutoFit/>
-    </cs:bodyPr>
-  </cs:dataLabelCallout>
-  <cs:dataPoint>
-    <cs:lnRef idx="0">
-      <cs:styleClr val="auto"/>
-    </cs:lnRef>
-    <cs:fillRef idx="2">
-      <cs:styleClr val="auto"/>
-    </cs:fillRef>
-    <cs:effectRef idx="1"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="dk1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="phClr">
-            <a:shade val="95000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:dataPoint>
-  <cs:dataPoint3D>
-    <cs:lnRef idx="0">
-      <cs:styleClr val="auto"/>
-    </cs:lnRef>
-    <cs:fillRef idx="2">
-      <cs:styleClr val="auto"/>
-    </cs:fillRef>
-    <cs:effectRef idx="1"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="dk1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="phClr">
-            <a:shade val="95000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:dataPoint3D>
-  <cs:dataPointLine>
-    <cs:lnRef idx="0">
-      <cs:styleClr val="auto"/>
-    </cs:lnRef>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="dk1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="22225" cap="rnd" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="phClr"/>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:dataPointLine>
-  <cs:dataPointMarker>
-    <cs:lnRef idx="0">
-      <cs:styleClr val="auto"/>
-    </cs:lnRef>
-    <cs:fillRef idx="0">
-      <cs:styleClr val="auto"/>
-    </cs:fillRef>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="dk1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:solidFill>
-        <a:schemeClr val="phClr"/>
-      </a:solidFill>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="phClr"/>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:dataPointMarker>
-  <cs:dataPointMarkerLayout symbol="circle" size="4"/>
-  <cs:dataPointWireframe>
-    <cs:lnRef idx="0">
-      <cs:styleClr val="auto"/>
-    </cs:lnRef>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="dk1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="rnd">
-        <a:solidFill>
-          <a:schemeClr val="phClr"/>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:dataPointWireframe>
-  <cs:dataTable>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="dk1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525">
-        <a:solidFill>
-          <a:schemeClr val="dk1">
-            <a:lumMod val="15000"/>
-            <a:lumOff val="85000"/>
-          </a:schemeClr>
-        </a:solidFill>
-      </a:ln>
-    </cs:spPr>
-    <cs:defRPr sz="900" kern="1200"/>
-  </cs:dataTable>
-  <cs:downBar>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="dk1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:solidFill>
-        <a:schemeClr val="dk1">
-          <a:lumMod val="75000"/>
-          <a:lumOff val="25000"/>
-        </a:schemeClr>
-      </a:solidFill>
-      <a:ln w="9525">
-        <a:solidFill>
-          <a:schemeClr val="dk1">
-            <a:lumMod val="65000"/>
-            <a:lumOff val="35000"/>
-          </a:schemeClr>
-        </a:solidFill>
-      </a:ln>
-    </cs:spPr>
-  </cs:downBar>
-  <cs:dropLine>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="dk1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="dk1">
-            <a:lumMod val="35000"/>
-            <a:lumOff val="65000"/>
-            <a:alpha val="33000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:dropLine>
-  <cs:errorBar>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="dk1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525">
-        <a:solidFill>
-          <a:schemeClr val="dk1">
-            <a:lumMod val="65000"/>
-            <a:lumOff val="35000"/>
-          </a:schemeClr>
-        </a:solidFill>
-      </a:ln>
-    </cs:spPr>
-  </cs:errorBar>
-  <cs:floor>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="dk1"/>
-    </cs:fontRef>
-  </cs:floor>
-  <cs:gridlineMajor>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="dk1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln>
-        <a:solidFill>
-          <a:schemeClr val="dk1">
-            <a:lumMod val="15000"/>
-            <a:lumOff val="85000"/>
-          </a:schemeClr>
-        </a:solidFill>
-      </a:ln>
-    </cs:spPr>
-  </cs:gridlineMajor>
-  <cs:gridlineMinor>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="dk1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln>
-        <a:solidFill>
-          <a:schemeClr val="dk1">
-            <a:lumMod val="5000"/>
-            <a:lumOff val="95000"/>
-          </a:schemeClr>
-        </a:solidFill>
-      </a:ln>
-    </cs:spPr>
-  </cs:gridlineMinor>
-  <cs:hiLoLine>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="dk1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525">
-        <a:solidFill>
-          <a:schemeClr val="dk1">
-            <a:lumMod val="35000"/>
-            <a:lumOff val="65000"/>
-          </a:schemeClr>
-        </a:solidFill>
-      </a:ln>
-    </cs:spPr>
-  </cs:hiLoLine>
-  <cs:leaderLine>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="dk1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525">
-        <a:solidFill>
-          <a:schemeClr val="dk1">
-            <a:lumMod val="35000"/>
-            <a:lumOff val="65000"/>
-          </a:schemeClr>
-        </a:solidFill>
-      </a:ln>
-    </cs:spPr>
-  </cs:leaderLine>
-  <cs:legend>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="dk1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:defRPr sz="900" kern="1200"/>
-  </cs:legend>
-  <cs:plotArea>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="dk1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:gradFill>
-        <a:gsLst>
-          <a:gs pos="100000">
-            <a:schemeClr val="lt1">
-              <a:lumMod val="95000"/>
-            </a:schemeClr>
-          </a:gs>
-          <a:gs pos="0">
-            <a:schemeClr val="lt1"/>
-          </a:gs>
-        </a:gsLst>
-        <a:lin ang="5400000" scaled="0"/>
-      </a:gradFill>
-    </cs:spPr>
-  </cs:plotArea>
-  <cs:plotArea3D>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="dk1"/>
-    </cs:fontRef>
-  </cs:plotArea3D>
-  <cs:seriesAxis>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="dk1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="dk1">
-            <a:lumMod val="15000"/>
-            <a:lumOff val="85000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-    <cs:defRPr sz="900" kern="1200"/>
-  </cs:seriesAxis>
-  <cs:seriesLine>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="dk1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525">
-        <a:solidFill>
-          <a:schemeClr val="dk1">
-            <a:lumMod val="35000"/>
-            <a:lumOff val="65000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:prstDash val="dash"/>
-      </a:ln>
-    </cs:spPr>
-  </cs:seriesLine>
-  <cs:title>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="dk1">
-        <a:lumMod val="50000"/>
-        <a:lumOff val="50000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:defRPr sz="1400" kern="1200" cap="none" spc="20" baseline="0"/>
-  </cs:title>
-  <cs:trendline>
-    <cs:lnRef idx="0">
-      <cs:styleClr val="auto"/>
-    </cs:lnRef>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="dk1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="rnd">
-        <a:solidFill>
-          <a:schemeClr val="phClr"/>
-        </a:solidFill>
-      </a:ln>
-    </cs:spPr>
-  </cs:trendline>
-  <cs:trendlineLabel>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="dk1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:defRPr sz="900" kern="1200"/>
-  </cs:trendlineLabel>
-  <cs:upBar>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="dk1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:solidFill>
-        <a:schemeClr val="lt1"/>
-      </a:solidFill>
-      <a:ln w="9525">
-        <a:solidFill>
-          <a:schemeClr val="dk1">
-            <a:lumMod val="65000"/>
-            <a:lumOff val="35000"/>
-          </a:schemeClr>
-        </a:solidFill>
-      </a:ln>
-    </cs:spPr>
-  </cs:upBar>
-  <cs:valueAxis>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="dk1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:defRPr sz="900" kern="1200" spc="20" baseline="0"/>
-  </cs:valueAxis>
-  <cs:wall>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="dk1"/>
-    </cs:fontRef>
-  </cs:wall>
-</cs:chartStyle>
+<file path=xl/charts/colors3.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
 </file>
 
-<file path=xl/charts/style2.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/charts/style1.xml><?xml version="1.0" encoding="utf-8"?>
 <cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="240">
   <cs:axisTitle>
     <cs:lnRef idx="0"/>
@@ -2995,20 +3897,1109 @@
 </cs:chartStyle>
 </file>
 
+<file path=xl/charts/style2.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="230">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200" cap="all"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" b="0" kern="1200" spc="20" baseline="0"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="2">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="1"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="phClr">
+            <a:shade val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="2">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="1"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="phClr">
+            <a:shade val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="22225" cap="rnd" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="4"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="75000"/>
+          <a:lumOff val="25000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+            <a:alpha val="33000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:gradFill>
+        <a:gsLst>
+          <a:gs pos="100000">
+            <a:schemeClr val="lt1">
+              <a:lumMod val="95000"/>
+            </a:schemeClr>
+          </a:gs>
+          <a:gs pos="0">
+            <a:schemeClr val="lt1"/>
+          </a:gs>
+        </a:gsLst>
+        <a:lin ang="5400000" scaled="0"/>
+      </a:gradFill>
+    </cs:spPr>
+  </cs:plotArea>
+  <cs:plotArea3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:prstDash val="dash"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="50000"/>
+        <a:lumOff val="50000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" kern="1200" cap="none" spc="20" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200" spc="20" baseline="0"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/charts/style3.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="240">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="75000"/>
+          <a:lumOff val="25000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="50000"/>
+            <a:lumOff val="50000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
 <file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>1</xdr:col>
-      <xdr:colOff>345284</xdr:colOff>
-      <xdr:row>16</xdr:row>
-      <xdr:rowOff>64291</xdr:rowOff>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>56312</xdr:colOff>
+      <xdr:row>5</xdr:row>
+      <xdr:rowOff>156601</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>8</xdr:col>
-      <xdr:colOff>383384</xdr:colOff>
-      <xdr:row>39</xdr:row>
-      <xdr:rowOff>85725</xdr:rowOff>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>521074</xdr:colOff>
+      <xdr:row>21</xdr:row>
+      <xdr:rowOff>162485</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="2" name="Chart 1"/>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing2.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>248033</xdr:colOff>
+      <xdr:row>23</xdr:row>
+      <xdr:rowOff>78698</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>15</xdr:col>
+      <xdr:colOff>354169</xdr:colOff>
+      <xdr:row>46</xdr:row>
+      <xdr:rowOff>100132</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -3030,15 +5021,15 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>0</xdr:col>
-      <xdr:colOff>516730</xdr:colOff>
-      <xdr:row>40</xdr:row>
-      <xdr:rowOff>7144</xdr:rowOff>
+      <xdr:colOff>168088</xdr:colOff>
+      <xdr:row>23</xdr:row>
+      <xdr:rowOff>100393</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>8</xdr:col>
-      <xdr:colOff>38099</xdr:colOff>
-      <xdr:row>55</xdr:row>
-      <xdr:rowOff>35719</xdr:rowOff>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>162485</xdr:colOff>
+      <xdr:row>46</xdr:row>
+      <xdr:rowOff>67236</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -3055,6 +5046,53 @@
         </a:graphicData>
       </a:graphic>
     </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>2185147</xdr:colOff>
+      <xdr:row>8</xdr:row>
+      <xdr:rowOff>168088</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>2190750</xdr:colOff>
+      <xdr:row>21</xdr:row>
+      <xdr:rowOff>22412</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="3" name="Straight Arrow Connector 2"/>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="2835088" y="1624853"/>
+          <a:ext cx="5603" cy="2185147"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln w="19050">
+          <a:tailEnd type="triangle"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
     <xdr:clientData/>
   </xdr:twoCellAnchor>
 </xdr:wsDr>
@@ -3315,280 +5353,634 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns="" xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="B1:K16"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="B1:J11"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B23" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="J34" sqref="J34"/>
+    <sheetView tabSelected="1" topLeftCell="A4" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="B18" sqref="B18"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
   <cols>
-    <col min="2" max="2" width="28.77734375" customWidth="1"/>
-    <col min="3" max="3" width="17.44140625" customWidth="1"/>
+    <col min="2" max="2" width="47.796875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:11" x14ac:dyDescent="0.45">
-      <c r="C1" s="3" t="s">
+    <row r="1" spans="2:10" x14ac:dyDescent="0.45">
+      <c r="B1" s="31" t="s">
         <v>15</v>
       </c>
-      <c r="D1" s="3"/>
+      <c r="C1" s="53">
+        <v>4</v>
+      </c>
+      <c r="D1" s="51">
+        <v>11</v>
+      </c>
+      <c r="E1" s="51">
+        <v>12</v>
+      </c>
+      <c r="F1" s="51">
+        <v>13</v>
+      </c>
+      <c r="G1" s="51">
+        <v>14</v>
+      </c>
+      <c r="H1" s="51">
+        <v>15</v>
+      </c>
+      <c r="I1" s="51">
+        <v>16</v>
+      </c>
+      <c r="J1" s="51">
+        <v>17</v>
+      </c>
     </row>
-    <row r="2" spans="2:11" x14ac:dyDescent="0.45">
-      <c r="C2" s="3" t="s">
-        <v>0</v>
-      </c>
-      <c r="D2" s="3" t="s">
-        <v>1</v>
+    <row r="2" spans="2:10" x14ac:dyDescent="0.45">
+      <c r="B2" s="29" t="s">
+        <v>12</v>
+      </c>
+      <c r="C2" s="54">
+        <v>31</v>
+      </c>
+      <c r="D2" s="55">
+        <v>11263</v>
+      </c>
+      <c r="E2" s="55">
+        <v>24575</v>
+      </c>
+      <c r="F2" s="55">
+        <v>53247</v>
+      </c>
+      <c r="G2" s="55">
+        <v>114687</v>
+      </c>
+      <c r="H2" s="55">
+        <v>245759</v>
+      </c>
+      <c r="I2" s="55">
+        <v>524287</v>
+      </c>
+      <c r="J2" s="55">
+        <v>1000000</v>
       </c>
     </row>
-    <row r="3" spans="2:11" x14ac:dyDescent="0.45">
-      <c r="C3" s="5" t="s">
-        <v>13</v>
-      </c>
-      <c r="D3" s="3" t="s">
-        <v>14</v>
+    <row r="3" spans="2:10" x14ac:dyDescent="0.45">
+      <c r="B3" s="29" t="s">
+        <v>8</v>
+      </c>
+      <c r="C3" s="54">
+        <v>31</v>
+      </c>
+      <c r="D3" s="55">
+        <v>11263</v>
+      </c>
+      <c r="E3" s="55">
+        <v>24575</v>
+      </c>
+      <c r="F3" s="55">
+        <v>53247</v>
+      </c>
+      <c r="G3" s="55">
+        <v>114687</v>
+      </c>
+      <c r="H3" s="55">
+        <v>245759</v>
+      </c>
+      <c r="I3" s="55">
+        <v>524287</v>
+      </c>
+      <c r="J3" s="55">
+        <v>1000000</v>
       </c>
     </row>
-    <row r="4" spans="2:11" x14ac:dyDescent="0.45">
-      <c r="C4" s="1"/>
-      <c r="D4" s="4"/>
+    <row r="4" spans="2:10" x14ac:dyDescent="0.45">
+      <c r="B4" s="52" t="s">
+        <v>27</v>
+      </c>
+      <c r="C4" s="3">
+        <v>2.0312800407409601</v>
+      </c>
+      <c r="D4" s="3">
+        <v>9.7438759803771902</v>
+      </c>
+      <c r="E4" s="3">
+        <v>9.6876251697540194</v>
+      </c>
+      <c r="F4" s="3">
+        <v>20.79714179039</v>
+      </c>
+      <c r="G4" s="3">
+        <v>26.125335216522199</v>
+      </c>
+      <c r="H4" s="3">
+        <v>53.281933784484799</v>
+      </c>
+      <c r="I4" s="3">
+        <v>107.49532604217499</v>
+      </c>
+      <c r="J4" s="3">
+        <v>199.76156806945801</v>
+      </c>
     </row>
-    <row r="5" spans="2:11" x14ac:dyDescent="0.45">
-      <c r="B5" s="3"/>
-      <c r="C5" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="D5" s="2">
-        <v>4</v>
+    <row r="5" spans="2:10" x14ac:dyDescent="0.45">
+      <c r="B5" s="53" t="s">
+        <v>28</v>
+      </c>
+      <c r="C5" s="3">
+        <v>1.6875</v>
+      </c>
+      <c r="D5" s="3">
+        <v>14.686999999999999</v>
       </c>
       <c r="E5" s="3">
-        <v>11</v>
+        <v>32.750397920608499</v>
       </c>
       <c r="F5" s="3">
-        <v>12</v>
-      </c>
-      <c r="G5" s="5">
-        <v>13</v>
-      </c>
-      <c r="H5" s="5">
-        <v>14</v>
-      </c>
-      <c r="I5" s="3">
-        <v>15</v>
-      </c>
+        <v>68.78</v>
+      </c>
+      <c r="G5" s="3"/>
+      <c r="H5" s="3"/>
+      <c r="I5" s="3"/>
+      <c r="J5" s="3"/>
     </row>
-    <row r="6" spans="2:11" x14ac:dyDescent="0.45">
-      <c r="B6" s="3"/>
-      <c r="C6" s="2"/>
-      <c r="D6" s="2"/>
-      <c r="E6" s="3"/>
-      <c r="F6" s="3"/>
-      <c r="G6" s="5"/>
-      <c r="H6" s="3"/>
-      <c r="I6" s="3"/>
+    <row r="7" spans="2:10" x14ac:dyDescent="0.45">
+      <c r="B7" s="56" t="s">
+        <v>29</v>
+      </c>
     </row>
-    <row r="7" spans="2:11" x14ac:dyDescent="0.45">
-      <c r="B7" s="3"/>
-      <c r="C7" s="11" t="s">
-        <v>11</v>
-      </c>
-      <c r="D7" s="12">
-        <v>16</v>
-      </c>
-      <c r="E7" s="13">
-        <v>2048</v>
-      </c>
-      <c r="F7" s="13">
-        <v>4096</v>
-      </c>
-      <c r="G7" s="13">
-        <v>8192</v>
-      </c>
-      <c r="H7" s="13">
-        <v>16384</v>
-      </c>
-      <c r="I7" s="13">
-        <v>32768</v>
+    <row r="8" spans="2:10" x14ac:dyDescent="0.45">
+      <c r="B8" s="57" t="s">
+        <v>30</v>
       </c>
     </row>
-    <row r="8" spans="2:11" x14ac:dyDescent="0.45">
-      <c r="B8" s="3" t="s">
-        <v>2</v>
-      </c>
-      <c r="C8" s="14">
-        <v>1</v>
-      </c>
-      <c r="D8" s="3"/>
-      <c r="E8" s="3"/>
-      <c r="F8" s="3">
-        <v>37.828611135482703</v>
-      </c>
-      <c r="G8" s="3">
-        <v>74.8</v>
-      </c>
-      <c r="H8" s="3"/>
-      <c r="I8" s="3"/>
+    <row r="9" spans="2:10" x14ac:dyDescent="0.45">
+      <c r="B9" s="57" t="s">
+        <v>31</v>
+      </c>
     </row>
-    <row r="9" spans="2:11" x14ac:dyDescent="0.45">
-      <c r="B9" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="C9" s="14">
-        <v>1</v>
-      </c>
-      <c r="D9" s="3">
-        <v>1.6875</v>
-      </c>
-      <c r="E9" s="3">
-        <v>14.686999999999999</v>
-      </c>
-      <c r="F9" s="3">
-        <v>32.750397920608499</v>
-      </c>
-      <c r="G9" s="3">
-        <v>68.78</v>
-      </c>
-      <c r="H9" s="3"/>
-      <c r="I9" s="3"/>
+    <row r="10" spans="2:10" x14ac:dyDescent="0.45">
+      <c r="B10" s="57" t="s">
+        <v>32</v>
+      </c>
     </row>
-    <row r="10" spans="2:11" x14ac:dyDescent="0.45">
-      <c r="B10" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="C10" s="14">
-        <v>5</v>
-      </c>
-      <c r="D10" s="3">
-        <v>1.89</v>
-      </c>
-      <c r="E10" s="3">
-        <v>12.077999999999999</v>
-      </c>
-      <c r="F10" s="3">
-        <v>25.29</v>
-      </c>
-      <c r="G10" s="5">
-        <v>58.14</v>
-      </c>
-      <c r="H10" s="3"/>
-      <c r="I10" s="3"/>
-    </row>
-    <row r="11" spans="2:11" x14ac:dyDescent="0.45">
-      <c r="B11" s="3" t="s">
-        <v>6</v>
-      </c>
-      <c r="C11" s="14">
-        <v>10</v>
-      </c>
-      <c r="D11" s="3">
-        <v>2.609</v>
-      </c>
-      <c r="E11" s="3">
-        <v>12.359534978866501</v>
-      </c>
-      <c r="F11" s="7">
-        <v>25.78</v>
-      </c>
-      <c r="G11" s="5">
-        <v>60.02</v>
-      </c>
-      <c r="H11" s="3">
-        <v>121.33908009</v>
-      </c>
-      <c r="I11" s="3"/>
-    </row>
-    <row r="12" spans="2:11" x14ac:dyDescent="0.45">
-      <c r="B12" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="C12" s="14">
-        <v>10</v>
-      </c>
-      <c r="D12" s="3">
-        <v>5.5940000000000003</v>
-      </c>
-      <c r="E12" s="3">
-        <v>10.545999999999999</v>
-      </c>
-      <c r="F12" s="5">
-        <v>11.5</v>
-      </c>
-      <c r="G12" s="8">
-        <v>16.001000000000001</v>
-      </c>
-      <c r="H12" s="3">
-        <v>84</v>
-      </c>
-      <c r="I12" s="3">
-        <v>195.9</v>
-      </c>
-      <c r="K12" s="9">
-        <v>16.2</v>
-      </c>
-    </row>
-    <row r="13" spans="2:11" x14ac:dyDescent="0.45">
-      <c r="B13" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="C13" s="14">
-        <v>20</v>
-      </c>
-      <c r="D13" s="2"/>
-      <c r="E13" s="2"/>
-      <c r="F13" s="2"/>
-      <c r="G13" s="2">
-        <v>12.5</v>
-      </c>
-      <c r="H13" s="2">
-        <v>31.2</v>
-      </c>
-      <c r="I13" s="2">
-        <v>148.18</v>
-      </c>
-      <c r="K13" s="10">
-        <v>16.8</v>
-      </c>
-    </row>
-    <row r="14" spans="2:11" x14ac:dyDescent="0.45">
-      <c r="B14" s="3" t="s">
-        <v>10</v>
-      </c>
-      <c r="C14" s="14">
-        <v>40</v>
-      </c>
-      <c r="D14" s="3"/>
-      <c r="E14" s="3"/>
-      <c r="F14" s="3"/>
-      <c r="G14" s="3">
-        <v>35.838200000000001</v>
-      </c>
-      <c r="H14" s="3">
-        <v>47.172478910000002</v>
-      </c>
-      <c r="I14" s="3">
-        <v>56.811120000000003</v>
-      </c>
-    </row>
-    <row r="15" spans="2:11" x14ac:dyDescent="0.45">
-      <c r="B15" s="6" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="16" spans="2:11" x14ac:dyDescent="0.45">
-      <c r="B16" s="6" t="s">
-        <v>12</v>
+    <row r="11" spans="2:10" x14ac:dyDescent="0.45">
+      <c r="B11" s="58" t="s">
+        <v>33</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <drawing r:id="rId1"/>
+  <legacyDrawing r:id="rId2"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A2:K23"/>
+  <sheetViews>
+    <sheetView topLeftCell="A4" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="C7" sqref="C7:C9"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
+  <cols>
+    <col min="2" max="2" width="31.73046875" customWidth="1"/>
+    <col min="3" max="3" width="19.19921875" customWidth="1"/>
+    <col min="4" max="4" width="20.33203125" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="2" spans="1:11" x14ac:dyDescent="0.45">
+      <c r="C2" s="41" t="s">
+        <v>11</v>
+      </c>
+      <c r="D2" s="9" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="3" spans="1:11" x14ac:dyDescent="0.45">
+      <c r="C3" s="41" t="s">
+        <v>18</v>
+      </c>
+      <c r="D3" s="9" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="4" spans="1:11" x14ac:dyDescent="0.45">
+      <c r="C4" s="41" t="s">
+        <v>0</v>
+      </c>
+      <c r="D4" s="9" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="5" spans="1:11" x14ac:dyDescent="0.45">
+      <c r="C5" s="41" t="s">
+        <v>10</v>
+      </c>
+      <c r="D5" s="9" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="6" spans="1:11" x14ac:dyDescent="0.45">
+      <c r="A6" s="20"/>
+      <c r="B6" s="20"/>
+      <c r="C6" s="1"/>
+      <c r="D6" s="4"/>
+    </row>
+    <row r="7" spans="1:11" x14ac:dyDescent="0.45">
+      <c r="A7" s="36"/>
+      <c r="B7" s="37"/>
+      <c r="C7" s="31" t="s">
+        <v>15</v>
+      </c>
+      <c r="D7" s="32">
+        <v>4</v>
+      </c>
+      <c r="E7" s="33">
+        <v>11</v>
+      </c>
+      <c r="F7" s="33">
+        <v>12</v>
+      </c>
+      <c r="G7" s="33">
+        <v>13</v>
+      </c>
+      <c r="H7" s="33">
+        <v>14</v>
+      </c>
+      <c r="I7" s="34">
+        <v>15</v>
+      </c>
+      <c r="J7" s="35">
+        <v>16</v>
+      </c>
+      <c r="K7" s="35">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="8" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="A8" s="38"/>
+      <c r="B8" s="39"/>
+      <c r="C8" s="29" t="s">
+        <v>12</v>
+      </c>
+      <c r="D8" s="26">
+        <v>16</v>
+      </c>
+      <c r="E8" s="27">
+        <v>2048</v>
+      </c>
+      <c r="F8" s="27">
+        <v>4096</v>
+      </c>
+      <c r="G8" s="27">
+        <v>8192</v>
+      </c>
+      <c r="H8" s="27">
+        <v>16384</v>
+      </c>
+      <c r="I8" s="28">
+        <v>32768</v>
+      </c>
+      <c r="J8" s="27">
+        <v>65536</v>
+      </c>
+      <c r="K8" s="27">
+        <f>J8*2</f>
+        <v>131072</v>
+      </c>
+    </row>
+    <row r="9" spans="1:11" x14ac:dyDescent="0.45">
+      <c r="A9" s="19"/>
+      <c r="B9" s="40"/>
+      <c r="C9" s="30" t="s">
+        <v>8</v>
+      </c>
+      <c r="D9" s="26">
+        <v>31</v>
+      </c>
+      <c r="E9" s="27">
+        <v>11263</v>
+      </c>
+      <c r="F9" s="27">
+        <v>24575</v>
+      </c>
+      <c r="G9" s="27">
+        <v>53247</v>
+      </c>
+      <c r="H9" s="27">
+        <v>114687</v>
+      </c>
+      <c r="I9" s="28">
+        <v>245759</v>
+      </c>
+      <c r="J9" s="27">
+        <v>524287</v>
+      </c>
+      <c r="K9" s="27">
+        <v>1000000</v>
+      </c>
+    </row>
+    <row r="10" spans="1:11" x14ac:dyDescent="0.45">
+      <c r="A10" s="42" t="s">
+        <v>24</v>
+      </c>
+      <c r="B10" s="43" t="s">
+        <v>25</v>
+      </c>
+      <c r="C10" s="21" t="s">
+        <v>26</v>
+      </c>
+      <c r="D10" s="22"/>
+      <c r="E10" s="23"/>
+      <c r="F10" s="23"/>
+      <c r="G10" s="23"/>
+      <c r="H10" s="23"/>
+      <c r="I10" s="24"/>
+      <c r="J10" s="25"/>
+      <c r="K10" s="25"/>
+    </row>
+    <row r="11" spans="1:11" x14ac:dyDescent="0.45">
+      <c r="A11" s="44" t="s">
+        <v>23</v>
+      </c>
+      <c r="B11" s="7" t="s">
+        <v>1</v>
+      </c>
+      <c r="C11" s="10">
+        <v>1</v>
+      </c>
+      <c r="D11" s="14"/>
+      <c r="E11" s="14"/>
+      <c r="F11" s="14">
+        <v>37.828611135482703</v>
+      </c>
+      <c r="G11" s="14">
+        <v>74.8</v>
+      </c>
+      <c r="H11" s="14"/>
+      <c r="I11" s="15"/>
+      <c r="J11" s="3"/>
+      <c r="K11" s="3"/>
+    </row>
+    <row r="12" spans="1:11" x14ac:dyDescent="0.45">
+      <c r="A12" s="44"/>
+      <c r="B12" s="7" t="s">
+        <v>3</v>
+      </c>
+      <c r="C12" s="10">
+        <v>1</v>
+      </c>
+      <c r="D12" s="3">
+        <v>1.6875</v>
+      </c>
+      <c r="E12" s="3">
+        <v>14.686999999999999</v>
+      </c>
+      <c r="F12" s="3">
+        <v>32.750397920608499</v>
+      </c>
+      <c r="G12" s="3">
+        <v>68.78</v>
+      </c>
+      <c r="H12" s="3"/>
+      <c r="I12" s="7"/>
+      <c r="J12" s="3"/>
+      <c r="K12" s="3"/>
+    </row>
+    <row r="13" spans="1:11" x14ac:dyDescent="0.45">
+      <c r="A13" s="44"/>
+      <c r="B13" s="7" t="s">
+        <v>4</v>
+      </c>
+      <c r="C13" s="18">
+        <v>5</v>
+      </c>
+      <c r="D13" s="3">
+        <v>1.89</v>
+      </c>
+      <c r="E13" s="3">
+        <v>12.077999999999999</v>
+      </c>
+      <c r="F13" s="3">
+        <v>25.29</v>
+      </c>
+      <c r="G13" s="5">
+        <v>58.14</v>
+      </c>
+      <c r="H13" s="3"/>
+      <c r="I13" s="7"/>
+      <c r="J13" s="3"/>
+      <c r="K13" s="3"/>
+    </row>
+    <row r="14" spans="1:11" x14ac:dyDescent="0.45">
+      <c r="A14" s="44"/>
+      <c r="B14" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="C14" s="10">
+        <v>10</v>
+      </c>
+      <c r="D14" s="3">
+        <v>2.609</v>
+      </c>
+      <c r="E14" s="3">
+        <v>12.359534978866501</v>
+      </c>
+      <c r="F14" s="7">
+        <v>25.78</v>
+      </c>
+      <c r="G14" s="5">
+        <v>60.02</v>
+      </c>
+      <c r="H14" s="3">
+        <v>121.33908009</v>
+      </c>
+      <c r="I14" s="7"/>
+      <c r="J14" s="3"/>
+      <c r="K14" s="3"/>
+    </row>
+    <row r="15" spans="1:11" x14ac:dyDescent="0.45">
+      <c r="A15" s="44" t="s">
+        <v>22</v>
+      </c>
+      <c r="B15" s="45" t="s">
+        <v>2</v>
+      </c>
+      <c r="C15" s="10">
+        <v>10</v>
+      </c>
+      <c r="D15" s="3">
+        <v>5.5940000000000003</v>
+      </c>
+      <c r="E15" s="3">
+        <v>10.545999999999999</v>
+      </c>
+      <c r="F15" s="5">
+        <v>11.5</v>
+      </c>
+      <c r="G15" s="8">
+        <v>16.329999999999998</v>
+      </c>
+      <c r="H15" s="3">
+        <v>84</v>
+      </c>
+      <c r="I15" s="7">
+        <v>195.9</v>
+      </c>
+      <c r="J15" s="3"/>
+      <c r="K15" s="3"/>
+    </row>
+    <row r="16" spans="1:11" x14ac:dyDescent="0.45">
+      <c r="A16" s="44"/>
+      <c r="B16" s="45" t="s">
+        <v>6</v>
+      </c>
+      <c r="C16" s="10">
+        <v>20</v>
+      </c>
+      <c r="D16" s="2"/>
+      <c r="E16" s="2"/>
+      <c r="F16" s="2"/>
+      <c r="G16" s="2">
+        <v>12.5</v>
+      </c>
+      <c r="H16" s="2">
+        <v>31.2</v>
+      </c>
+      <c r="I16" s="16">
+        <v>148.18</v>
+      </c>
+      <c r="J16" s="3"/>
+      <c r="K16" s="3"/>
+    </row>
+    <row r="17" spans="1:11" x14ac:dyDescent="0.45">
+      <c r="A17" s="44"/>
+      <c r="B17" s="45" t="s">
+        <v>7</v>
+      </c>
+      <c r="C17" s="10">
+        <v>40</v>
+      </c>
+      <c r="D17" s="3"/>
+      <c r="E17" s="3"/>
+      <c r="F17" s="3"/>
+      <c r="G17" s="3">
+        <v>35.838200000000001</v>
+      </c>
+      <c r="H17" s="3">
+        <v>47.172478910000002</v>
+      </c>
+      <c r="I17" s="7">
+        <v>56.811120000000003</v>
+      </c>
+      <c r="J17" s="3"/>
+      <c r="K17" s="3"/>
+    </row>
+    <row r="18" spans="1:11" x14ac:dyDescent="0.45">
+      <c r="A18" s="44"/>
+      <c r="B18" s="45" t="s">
+        <v>7</v>
+      </c>
+      <c r="C18" s="11">
+        <v>40</v>
+      </c>
+      <c r="D18" s="12"/>
+      <c r="E18" s="12"/>
+      <c r="F18" s="12"/>
+      <c r="G18" s="12">
+        <v>36.700000000000003</v>
+      </c>
+      <c r="H18" s="6">
+        <v>39.32</v>
+      </c>
+      <c r="I18" s="17">
+        <v>57.58</v>
+      </c>
+      <c r="J18" s="3">
+        <v>341.6</v>
+      </c>
+      <c r="K18" s="3"/>
+    </row>
+    <row r="19" spans="1:11" x14ac:dyDescent="0.45">
+      <c r="A19" s="44"/>
+      <c r="B19" s="45" t="s">
+        <v>13</v>
+      </c>
+      <c r="C19" s="11">
+        <v>80</v>
+      </c>
+      <c r="D19" s="3"/>
+      <c r="E19" s="3"/>
+      <c r="F19" s="3"/>
+      <c r="G19" s="3">
+        <v>67.554542999999995</v>
+      </c>
+      <c r="H19" s="5">
+        <v>74.3</v>
+      </c>
+      <c r="I19" s="7">
+        <v>86.985460000000003</v>
+      </c>
+      <c r="J19" s="8">
+        <v>110.1414</v>
+      </c>
+      <c r="K19" s="3">
+        <v>631.56100000000004</v>
+      </c>
+    </row>
+    <row r="20" spans="1:11" x14ac:dyDescent="0.45">
+      <c r="A20" s="44"/>
+      <c r="B20" s="45" t="s">
+        <v>14</v>
+      </c>
+      <c r="C20" s="11">
+        <v>120</v>
+      </c>
+      <c r="D20" s="3"/>
+      <c r="E20" s="3"/>
+      <c r="F20" s="3"/>
+      <c r="G20" s="3"/>
+      <c r="H20" s="3"/>
+      <c r="I20">
+        <v>118.557401895523</v>
+      </c>
+      <c r="J20" s="3">
+        <v>138.104603052139</v>
+      </c>
+      <c r="K20" s="3">
+        <v>213.97030000000001</v>
+      </c>
+    </row>
+    <row r="22" spans="1:11" x14ac:dyDescent="0.45">
+      <c r="B22" s="13" t="s">
+        <v>16</v>
+      </c>
+      <c r="C22" s="46"/>
+      <c r="D22" s="47"/>
+    </row>
+    <row r="23" spans="1:11" x14ac:dyDescent="0.45">
+      <c r="B23" s="48" t="s">
+        <v>9</v>
+      </c>
+      <c r="C23" s="49"/>
+      <c r="D23" s="50"/>
+    </row>
+  </sheetData>
+  <mergeCells count="2">
+    <mergeCell ref="A15:A20"/>
+    <mergeCell ref="A11:A14"/>
+  </mergeCells>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
+  <drawing r:id="rId2"/>
+  <legacyDrawing r:id="rId3"/>
 </worksheet>
 </file>